--- a/data/trans_orig/P19C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>14399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8657</v>
+        <v>8457</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22318</v>
+        <v>22842</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03013461231249101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01811606833697231</v>
+        <v>0.01769895164313129</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0467054209621205</v>
+        <v>0.04780344313055125</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -764,19 +764,19 @@
         <v>22497</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14966</v>
+        <v>14774</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32887</v>
+        <v>32821</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04180880968421189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02781309122136407</v>
+        <v>0.02745624359616954</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06111719971038058</v>
+        <v>0.06099444142162144</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -785,19 +785,19 @@
         <v>36897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26451</v>
+        <v>26370</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50626</v>
+        <v>48684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03631797210714791</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02603559972884732</v>
+        <v>0.02595630501355108</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04983161694363578</v>
+        <v>0.04792009872848209</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>463438</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>455519</v>
+        <v>454995</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>469180</v>
+        <v>469380</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.969865387687509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9532945790378795</v>
+        <v>0.9521965568694487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9818839316630277</v>
+        <v>0.9823010483568686</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>524</v>
@@ -835,19 +835,19 @@
         <v>515607</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>505217</v>
+        <v>505283</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>523138</v>
+        <v>523330</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9581911903157881</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9388828002896195</v>
+        <v>0.9390055585783791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.972186908778636</v>
+        <v>0.9725437564038308</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>979</v>
@@ -856,19 +856,19 @@
         <v>979044</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>965315</v>
+        <v>967257</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>989490</v>
+        <v>989571</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9636820278928521</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9501683830563644</v>
+        <v>0.9520799012715179</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9739644002711528</v>
+        <v>0.9740436949864489</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>17300</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9756</v>
+        <v>10252</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27157</v>
+        <v>26805</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02395750777434905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01350979608928495</v>
+        <v>0.01419701276837738</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03760700939974201</v>
+        <v>0.03711904056811363</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -981,19 +981,19 @@
         <v>26726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18476</v>
+        <v>18496</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37874</v>
+        <v>38428</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03323134624166706</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02297327934682941</v>
+        <v>0.02299832437146584</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04709385950442303</v>
+        <v>0.04778236005138812</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -1002,19 +1002,19 @@
         <v>44026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32597</v>
+        <v>32503</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59621</v>
+        <v>59706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0288438342168937</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02135588039777985</v>
+        <v>0.02129443098000858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0390611763902582</v>
+        <v>0.03911674984487419</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>704828</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>694971</v>
+        <v>695323</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>712372</v>
+        <v>711876</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.976042492225651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9623929906002578</v>
+        <v>0.9628809594318863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.986490203910715</v>
+        <v>0.9858029872316225</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>730</v>
@@ -1052,19 +1052,19 @@
         <v>777500</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>766352</v>
+        <v>765798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>785750</v>
+        <v>785730</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.966768653758333</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9529061404955769</v>
+        <v>0.9522176399486119</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9770267206531705</v>
+        <v>0.9770016756285342</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1382</v>
@@ -1073,19 +1073,19 @@
         <v>1482328</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1466733</v>
+        <v>1466648</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1493757</v>
+        <v>1493851</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9711561657831063</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9609388236097418</v>
+        <v>0.9608832501551259</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9786441196022201</v>
+        <v>0.9787055690199914</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>14052</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7843</v>
+        <v>7606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23808</v>
+        <v>24444</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02582770765931129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01441584416026691</v>
+        <v>0.01398056729854741</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04376001955849512</v>
+        <v>0.04493024132406462</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1198,19 +1198,19 @@
         <v>15128</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8413</v>
+        <v>8436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23792</v>
+        <v>23506</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02587694019737623</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01439127648468495</v>
+        <v>0.01442980170079126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04069747540322677</v>
+        <v>0.040207656885403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1219,19 +1219,19 @@
         <v>29179</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19782</v>
+        <v>19572</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42349</v>
+        <v>40951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02585320856164311</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01752681448316566</v>
+        <v>0.0173411275789165</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03752191046942788</v>
+        <v>0.03628330900249217</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>529996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520240</v>
+        <v>519604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>536205</v>
+        <v>536442</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9741722923406887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9562399804415048</v>
+        <v>0.9550697586759355</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9855841558397331</v>
+        <v>0.9860194327014526</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>581</v>
@@ -1269,19 +1269,19 @@
         <v>569481</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>560817</v>
+        <v>561103</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>576196</v>
+        <v>576173</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9741230598026238</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9593025245967732</v>
+        <v>0.9597923431145969</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9856087235153151</v>
+        <v>0.9855701982992088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1082</v>
@@ -1290,19 +1290,19 @@
         <v>1099478</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1086308</v>
+        <v>1087706</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1108875</v>
+        <v>1109085</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9741467914383569</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.962478089530572</v>
+        <v>0.9637166909975078</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9824731855168343</v>
+        <v>0.9826588724210834</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>18538</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11245</v>
+        <v>11885</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28482</v>
+        <v>28963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02624056216196381</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01591770412395594</v>
+        <v>0.01682280186788536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04031522180973986</v>
+        <v>0.04099651497428116</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1415,19 +1415,19 @@
         <v>21683</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13552</v>
+        <v>14209</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32911</v>
+        <v>33576</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0267584026936264</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.016724547824217</v>
+        <v>0.01753543931178226</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04061478850441595</v>
+        <v>0.04143624302914294</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -1436,19 +1436,19 @@
         <v>40221</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28945</v>
+        <v>28250</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54887</v>
+        <v>55105</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02651720798631183</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01908279387344552</v>
+        <v>0.01862456442227557</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03618595548801352</v>
+        <v>0.03632970488217925</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>687939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>677995</v>
+        <v>677514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>695232</v>
+        <v>694592</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9737594378380362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9596847781902602</v>
+        <v>0.9590034850257194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.984082295876044</v>
+        <v>0.9831771981321148</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>758</v>
@@ -1486,19 +1486,19 @@
         <v>788633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>777405</v>
+        <v>776740</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>796764</v>
+        <v>796107</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9732415973063736</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9593852114955841</v>
+        <v>0.9585637569708569</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9832754521757829</v>
+        <v>0.9824645606882177</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1490</v>
@@ -1507,19 +1507,19 @@
         <v>1476572</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1461906</v>
+        <v>1461688</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1487848</v>
+        <v>1488543</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9734827920136881</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9638140445119864</v>
+        <v>0.9636702951178209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9809172061265543</v>
+        <v>0.9813754355777246</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>64290</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49806</v>
+        <v>48637</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80896</v>
+        <v>81935</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02623544144549551</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02032472880889192</v>
+        <v>0.01984794446507648</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03301234151462525</v>
+        <v>0.03343610597349272</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -1632,19 +1632,19 @@
         <v>86034</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70300</v>
+        <v>69123</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107270</v>
+        <v>105366</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03143063071377918</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02568272201931696</v>
+        <v>0.02525257214440569</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0391889274398797</v>
+        <v>0.03849339884572671</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>146</v>
@@ -1653,19 +1653,19 @@
         <v>150323</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128875</v>
+        <v>127782</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177979</v>
+        <v>176199</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02897662393162866</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02484214043558011</v>
+        <v>0.02463157344782127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03430749489290458</v>
+        <v>0.03396449384356837</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>2386201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2369595</v>
+        <v>2368556</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2400685</v>
+        <v>2401854</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9737645585545045</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9669876584853748</v>
+        <v>0.9665638940265072</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9796752711911082</v>
+        <v>0.9801520555349228</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2593</v>
@@ -1703,19 +1703,19 @@
         <v>2651221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2629985</v>
+        <v>2631889</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2666955</v>
+        <v>2668132</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9685693692862208</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9608110725601201</v>
+        <v>0.9615066011542729</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.974317277980683</v>
+        <v>0.9747474278555942</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4933</v>
@@ -1724,19 +1724,19 @@
         <v>5037422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5009766</v>
+        <v>5011546</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5058870</v>
+        <v>5059963</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9710233760683713</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9656925051070953</v>
+        <v>0.9660355061564316</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9751578595644196</v>
+        <v>0.9753684265521786</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>10101</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5071</v>
+        <v>4935</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18912</v>
+        <v>18302</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01705769327989614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008563115312339361</v>
+        <v>0.008334089934174234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03193502522793214</v>
+        <v>0.03090586297990042</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2089,19 +2089,19 @@
         <v>11812</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6076</v>
+        <v>6047</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20046</v>
+        <v>21110</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01885176282410252</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009696909977103634</v>
+        <v>0.009650690774573397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03199191285964282</v>
+        <v>0.03369051416850812</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -2110,19 +2110,19 @@
         <v>21914</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13890</v>
+        <v>13647</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33427</v>
+        <v>33275</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01798005363855294</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01139653523259811</v>
+        <v>0.01119706601934116</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02742629498668947</v>
+        <v>0.02730181334456145</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>582088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>573277</v>
+        <v>573887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>587118</v>
+        <v>587254</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9829423067201039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9680649747720678</v>
+        <v>0.9690941370200995</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9914368846876607</v>
+        <v>0.9916659100658258</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>572</v>
@@ -2160,19 +2160,19 @@
         <v>614786</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>606552</v>
+        <v>605488</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>620522</v>
+        <v>620551</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9811482371758975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9680080871403571</v>
+        <v>0.9663094858314917</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9903030900228963</v>
+        <v>0.9903493092254266</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1132</v>
@@ -2181,19 +2181,19 @@
         <v>1196873</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1185360</v>
+        <v>1185512</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1204897</v>
+        <v>1205140</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9820199463614471</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9725737050133105</v>
+        <v>0.9726981866554384</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9886034647674017</v>
+        <v>0.9888029339806588</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>12146</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7021</v>
+        <v>6319</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20713</v>
+        <v>20512</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0143814017700098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00831320580868484</v>
+        <v>0.007481516243038221</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02452423285088412</v>
+        <v>0.02428695415320327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2306,19 +2306,19 @@
         <v>26233</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16661</v>
+        <v>16264</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37965</v>
+        <v>38483</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02960698784845364</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01880335079372026</v>
+        <v>0.01835502558070186</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04284738097881135</v>
+        <v>0.0434324711309549</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -2327,19 +2327,19 @@
         <v>38380</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26245</v>
+        <v>26740</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53455</v>
+        <v>53896</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02217659151710039</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01516464355941362</v>
+        <v>0.01545122385945474</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03088720613680025</v>
+        <v>0.03114222784836971</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>832441</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>823874</v>
+        <v>824075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>837566</v>
+        <v>838268</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9856185982299902</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9754757671491159</v>
+        <v>0.9757130458467967</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9916867941913151</v>
+        <v>0.9925184837569617</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>786</v>
@@ -2377,19 +2377,19 @@
         <v>859819</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>848087</v>
+        <v>847569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>869391</v>
+        <v>869788</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9703930121515464</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9571526190211886</v>
+        <v>0.9565675288690451</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9811966492062798</v>
+        <v>0.9816449744192982</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1557</v>
@@ -2398,19 +2398,19 @@
         <v>1692259</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1677184</v>
+        <v>1676743</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1704394</v>
+        <v>1703899</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9778234084828996</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9691127938631999</v>
+        <v>0.9688577721516297</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9848353564405866</v>
+        <v>0.9845487761405448</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>9059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4043</v>
+        <v>4085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18001</v>
+        <v>17940</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01445369081664321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006451005155634534</v>
+        <v>0.006518091122105318</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02872027306235255</v>
+        <v>0.02862226993411681</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -2523,19 +2523,19 @@
         <v>16595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9316</v>
+        <v>10080</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26918</v>
+        <v>26861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02522893830023375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01416384662389981</v>
+        <v>0.0153241990536037</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04092409468088782</v>
+        <v>0.04083677338598501</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -2544,19 +2544,19 @@
         <v>25654</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16300</v>
+        <v>17210</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37435</v>
+        <v>40535</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0199712365262597</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01268934088542372</v>
+        <v>0.0133980566531975</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02914299950697102</v>
+        <v>0.03155587903371946</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>617722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>608780</v>
+        <v>608841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>622738</v>
+        <v>622696</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9855463091833568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9712797269376472</v>
+        <v>0.9713777300658832</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9935489948443654</v>
+        <v>0.9934819088778947</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>583</v>
@@ -2594,19 +2594,19 @@
         <v>641162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>630839</v>
+        <v>630896</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>648441</v>
+        <v>647677</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9747710616997662</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9590759053191121</v>
+        <v>0.9591632266140155</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9858361533761002</v>
+        <v>0.9846758009463967</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1149</v>
@@ -2615,19 +2615,19 @@
         <v>1258884</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1247103</v>
+        <v>1244003</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1268238</v>
+        <v>1267328</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9800287634737403</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9708570004930288</v>
+        <v>0.968444120966281</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9873106591145763</v>
+        <v>0.9866019433468025</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>17477</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10454</v>
+        <v>9527</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28377</v>
+        <v>28542</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02260507077814832</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01352169975743366</v>
+        <v>0.01232209720232734</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03670209930001361</v>
+        <v>0.03691566910827674</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -2740,19 +2740,19 @@
         <v>31520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21271</v>
+        <v>22099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45591</v>
+        <v>45788</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0350313702557916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0236405111886377</v>
+        <v>0.02456001948816637</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0506694358253653</v>
+        <v>0.0508886986189855</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -2761,19 +2761,19 @@
         <v>48998</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36117</v>
+        <v>36269</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64767</v>
+        <v>67300</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02928845313154422</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02158884315089244</v>
+        <v>0.02167963545143125</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03871427999362451</v>
+        <v>0.04022872244075764</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>755686</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>744786</v>
+        <v>744621</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>762709</v>
+        <v>763636</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9773949292218517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9632979006999864</v>
+        <v>0.9630843308917233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9864783002425666</v>
+        <v>0.9876779027976728</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>827</v>
@@ -2811,19 +2811,19 @@
         <v>868256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>854185</v>
+        <v>853988</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>878505</v>
+        <v>877677</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9649686297442084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.949330564174635</v>
+        <v>0.9491113013810145</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9763594888113626</v>
+        <v>0.9754399805118337</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1556</v>
@@ -2832,19 +2832,19 @@
         <v>1623941</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1608172</v>
+        <v>1605639</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1636822</v>
+        <v>1636670</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9707115468684557</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9612857200063757</v>
+        <v>0.9597712775592424</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9784111568491076</v>
+        <v>0.978320364548569</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>48784</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35423</v>
+        <v>35427</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64516</v>
+        <v>64008</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01719747618908742</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01248727803276262</v>
+        <v>0.01248860075836421</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02274304831822391</v>
+        <v>0.0225642179642446</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -2957,19 +2957,19 @@
         <v>86161</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69001</v>
+        <v>69822</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108701</v>
+        <v>107476</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02806370296629063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02247442753982996</v>
+        <v>0.02274187612293413</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03540532009956969</v>
+        <v>0.03500640521527052</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -2978,19 +2978,19 @@
         <v>134945</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111717</v>
+        <v>111582</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>159120</v>
+        <v>162864</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02284532806419676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01891296821270371</v>
+        <v>0.01889018062068277</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02693804400646162</v>
+        <v>0.02757179325241267</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>2787935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2772203</v>
+        <v>2772711</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2801296</v>
+        <v>2801292</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9828025238109126</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9772569516817765</v>
+        <v>0.9774357820357565</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9875127219672375</v>
+        <v>0.987511399241636</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2768</v>
@@ -3028,19 +3028,19 @@
         <v>2984023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2961483</v>
+        <v>2962708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3001183</v>
+        <v>3000362</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9719362970337093</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9645946799004294</v>
+        <v>0.9649935947847295</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9775255724601695</v>
+        <v>0.9772581238770659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5394</v>
@@ -3049,19 +3049,19 @@
         <v>5771958</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5747783</v>
+        <v>5744039</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5795186</v>
+        <v>5795321</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9771546719358032</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9730619559935384</v>
+        <v>0.9724282067475873</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9810870317872962</v>
+        <v>0.9811098193793172</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>16967</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10223</v>
+        <v>10285</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27349</v>
+        <v>27148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03231782143871637</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01947186202575548</v>
+        <v>0.01959165462311586</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05209450086027778</v>
+        <v>0.0517121035516422</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -3414,19 +3414,19 @@
         <v>11780</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5979</v>
+        <v>5902</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20767</v>
+        <v>20292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02163960547379444</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0109841754581636</v>
+        <v>0.0108416980269022</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03814987839870384</v>
+        <v>0.03727639767768315</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -3435,19 +3435,19 @@
         <v>28746</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19281</v>
+        <v>19878</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41159</v>
+        <v>41116</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02688200355594651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01803065169688779</v>
+        <v>0.01858908891754805</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03848926439074705</v>
+        <v>0.03844951827476086</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>508026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>497644</v>
+        <v>497845</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>514770</v>
+        <v>514708</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9676821785612836</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9479054991397224</v>
+        <v>0.9482878964483575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9805281379742445</v>
+        <v>0.980408345376884</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>533</v>
@@ -3485,19 +3485,19 @@
         <v>532583</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>523596</v>
+        <v>524071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>538384</v>
+        <v>538461</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9783603945262056</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9618501216012961</v>
+        <v>0.9627236023223172</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9890158245418363</v>
+        <v>0.9891583019730978</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1024</v>
@@ -3506,19 +3506,19 @@
         <v>1040610</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1028197</v>
+        <v>1028240</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1050075</v>
+        <v>1049478</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9731179964440535</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9615107356092529</v>
+        <v>0.961550481725239</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9819693483031122</v>
+        <v>0.9814109110824519</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>21656</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13242</v>
+        <v>13300</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31941</v>
+        <v>31089</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02652754625186888</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01622063024560489</v>
+        <v>0.01629209250189839</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03912665567643128</v>
+        <v>0.03808327780436353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -3631,19 +3631,19 @@
         <v>27705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18550</v>
+        <v>19225</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39754</v>
+        <v>40516</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03197861214283159</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02141110683596172</v>
+        <v>0.02219055080108724</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04588552276394348</v>
+        <v>0.04676486423806574</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -3652,19 +3652,19 @@
         <v>49361</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37022</v>
+        <v>37294</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65659</v>
+        <v>64802</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02933410989989113</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02200129669151874</v>
+        <v>0.02216278723954367</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0390196072011906</v>
+        <v>0.03851056215112831</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>794690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>784405</v>
+        <v>785257</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>803104</v>
+        <v>803046</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9734724537481311</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9608733443235687</v>
+        <v>0.9619167221956358</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9837793697543951</v>
+        <v>0.9837079074981017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>792</v>
@@ -3702,19 +3702,19 @@
         <v>838668</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>826619</v>
+        <v>825857</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>847823</v>
+        <v>847148</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9680213878571684</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9541144772360565</v>
+        <v>0.9532351357619342</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9785888931640382</v>
+        <v>0.9778094491989127</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1525</v>
@@ -3723,19 +3723,19 @@
         <v>1633358</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1617060</v>
+        <v>1617917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1645697</v>
+        <v>1645425</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9706658901001088</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9609803927988094</v>
+        <v>0.9614894378488716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9779987033084813</v>
+        <v>0.9778372127604563</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>15424</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8563</v>
+        <v>8143</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25344</v>
+        <v>24595</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02802494029844892</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0155588369487817</v>
+        <v>0.01479599617679278</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04604971256143377</v>
+        <v>0.0446889270765374</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3848,19 +3848,19 @@
         <v>7153</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3180</v>
+        <v>3038</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14771</v>
+        <v>13287</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01233864196899401</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005485540334695722</v>
+        <v>0.005240323059650566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02547878346808061</v>
+        <v>0.02291896352024146</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3869,19 +3869,19 @@
         <v>22577</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14426</v>
+        <v>14626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34144</v>
+        <v>33284</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01997790170130628</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01276526364186612</v>
+        <v>0.01294266733912273</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03021364603303829</v>
+        <v>0.02945239717247946</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>534936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525016</v>
+        <v>525765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>541797</v>
+        <v>542217</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9719750597015511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9539502874385661</v>
+        <v>0.9553110729234626</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9844411630512182</v>
+        <v>0.9852040038232072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>545</v>
@@ -3919,19 +3919,19 @@
         <v>572585</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>564967</v>
+        <v>566451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>576558</v>
+        <v>576700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.987661358031006</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9745212165319194</v>
+        <v>0.9770810364797585</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9945144596653043</v>
+        <v>0.9947596769403494</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1032</v>
@@ -3940,19 +3940,19 @@
         <v>1107521</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1095954</v>
+        <v>1096814</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1115672</v>
+        <v>1115472</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9800220982986937</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9697863539669618</v>
+        <v>0.9705476028275207</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9872347363581336</v>
+        <v>0.9870573326608775</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>22016</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14021</v>
+        <v>13391</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34363</v>
+        <v>33632</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02849418430393613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01814677312115909</v>
+        <v>0.01733197646238228</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04447445957311543</v>
+        <v>0.0435295857324773</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -4065,19 +4065,19 @@
         <v>29761</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19265</v>
+        <v>19027</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43287</v>
+        <v>42244</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03394171837417501</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02197124900755256</v>
+        <v>0.02169896470237019</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04936730568873408</v>
+        <v>0.04817699214720927</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -4086,19 +4086,19 @@
         <v>51777</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38547</v>
+        <v>37870</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66882</v>
+        <v>66884</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03139002684201971</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02336942436197124</v>
+        <v>0.02295898303573844</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04054733717326292</v>
+        <v>0.04054834703674421</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>750619</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>738272</v>
+        <v>739003</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>758614</v>
+        <v>759244</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9715058156960639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9555255404268845</v>
+        <v>0.9564704142675227</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9818532268788409</v>
+        <v>0.9826680235376177</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>786</v>
@@ -4136,19 +4136,19 @@
         <v>847080</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>833554</v>
+        <v>834597</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>857576</v>
+        <v>857814</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.966058281625825</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9506326943112658</v>
+        <v>0.9518230078527907</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9780287509924473</v>
+        <v>0.9783010352976298</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1533</v>
@@ -4157,19 +4157,19 @@
         <v>1597699</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1582594</v>
+        <v>1582592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1610929</v>
+        <v>1611606</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9686099731579803</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.959452662826737</v>
+        <v>0.9594516529632557</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9766305756380288</v>
+        <v>0.9770410169642616</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>76062</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59956</v>
+        <v>61233</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95879</v>
+        <v>96537</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02854810908582277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02250323392969885</v>
+        <v>0.02298264144565058</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03598608752734221</v>
+        <v>0.03623298584949804</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -4282,19 +4282,19 @@
         <v>76400</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61366</v>
+        <v>60636</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95574</v>
+        <v>95888</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0266450959737319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02140197880839943</v>
+        <v>0.02114724741871473</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03333207058713388</v>
+        <v>0.03344187071669875</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>143</v>
@@ -4303,19 +4303,19 @@
         <v>152462</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130553</v>
+        <v>127925</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>181074</v>
+        <v>179628</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02756168734441032</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02360114880291445</v>
+        <v>0.02312604178608835</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03273421229694996</v>
+        <v>0.03247283202153808</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>2588271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2568454</v>
+        <v>2567796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2604377</v>
+        <v>2603100</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9714518909141773</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9640139124726579</v>
+        <v>0.963767014150502</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9774967660703012</v>
+        <v>0.9770173585543495</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2656</v>
@@ -4353,19 +4353,19 @@
         <v>2790915</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2771741</v>
+        <v>2771427</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2805949</v>
+        <v>2806679</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9733549040262681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9666679294128661</v>
+        <v>0.9665581292833012</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9785980211916006</v>
+        <v>0.9788527525812853</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5114</v>
@@ -4374,19 +4374,19 @@
         <v>5379186</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5350574</v>
+        <v>5352020</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5401095</v>
+        <v>5403723</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9724383126555897</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9672657877030501</v>
+        <v>0.9675271679784619</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9763988511970856</v>
+        <v>0.9768739582139117</v>
       </c>
     </row>
     <row r="18">
